--- a/src/main/java/com/trac/config/TestData.xlsx
+++ b/src/main/java/com/trac/config/TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="4380" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="4380" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -29,9 +30,6 @@
     <t>UserName</t>
   </si>
   <si>
-    <t>apolson</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -131,13 +129,70 @@
     <t>Aus</t>
   </si>
   <si>
-    <t>Shipment Sub workflow 2</t>
-  </si>
-  <si>
     <t>Scotya workflow</t>
   </si>
   <si>
     <t xml:space="preserve">Scotya Sub workflow </t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Exporter Bank</t>
+  </si>
+  <si>
+    <t>Port Route</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Good Carried</t>
+  </si>
+  <si>
+    <t>RM-001</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Exporter</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>axis</t>
+  </si>
+  <si>
+    <t>dubai</t>
+  </si>
+  <si>
+    <t>Sidd</t>
+  </si>
+  <si>
+    <t>Shangai Aluminium</t>
+  </si>
+  <si>
+    <t>RM-002</t>
+  </si>
+  <si>
+    <t>JAP</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>Related Parties</t>
+  </si>
+  <si>
+    <t>01/Jul/2016</t>
+  </si>
+  <si>
+    <t>bank</t>
   </si>
 </sst>
 </file>
@@ -161,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +232,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,6 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +603,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,18 +621,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -625,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -637,50 +699,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,18 +751,18 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -709,26 +771,26 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -753,47 +815,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2">
         <v>999</v>
@@ -801,18 +863,155 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="10">
         <v>42683</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2">
+        <v>200.25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3">
+        <v>400.25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/trac/config/TestData.xlsx
+++ b/src/main/java/com/trac/config/TestData.xlsx
@@ -153,9 +153,6 @@
     <t>Good Carried</t>
   </si>
   <si>
-    <t>RM-001</t>
-  </si>
-  <si>
     <t>Demo</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>bank</t>
+  </si>
+  <si>
+    <t>RM-003</t>
   </si>
 </sst>
 </file>
@@ -629,7 +629,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>4</v>
@@ -887,7 +887,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,72 +946,72 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2">
+        <v>400.25</v>
+      </c>
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F2">
-        <v>200.25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" t="s">
         <v>55</v>
       </c>
-      <c r="I2" t="s">
-        <v>56</v>
-      </c>
       <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>49</v>
-      </c>
-      <c r="L2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>400.25</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>48</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>49</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
